--- a/Table_xls/z装备系统相关配置表/t套装效果配置表.xlsx
+++ b/Table_xls/z装备系统相关配置表/t套装效果配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table_xls\z装备系统相关配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58224D5B-F762-457F-9978-D696C807401C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E2146-3185-4C51-A589-E7C8667037F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>装备触发数量</t>
-  </si>
-  <si>
-    <t>增加技能等级</t>
   </si>
   <si>
     <t>增加法术追击目标</t>
@@ -639,6 +636,10 @@
     <t>点化成功几率</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>增加技能等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1098,7 +1099,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1116,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1134,7 +1135,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="D2" s="14">
         <v>3</v>
@@ -1153,7 +1154,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="14">
         <v>3</v>
@@ -1172,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="14">
         <v>3</v>
@@ -1256,623 +1257,623 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+      <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+      <c r="B31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
+      <c r="B37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
+      <c r="B38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
+      <c r="B39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
+      <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+      <c r="B41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
+      <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="2" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
+      <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
+      <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
+      <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
+      <c r="B48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="2" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
+      <c r="B49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="2" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
+      <c r="B50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
+      <c r="B51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="7" t="s">
+      <c r="B52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="2" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="7" t="s">
+      <c r="B53" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="2" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="7" t="s">
+      <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="2" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="7" t="s">
+      <c r="B55" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="2" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="7" t="s">
+      <c r="B56" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="2" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="8" t="s">
+      <c r="B57" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
+      <c r="B58" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="8" t="s">
+      <c r="B59" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="2" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="8" t="s">
+      <c r="B60" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="2" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="8" t="s">
+      <c r="B61" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="2" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="7" t="s">
+      <c r="B62" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="2" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="7" t="s">
+      <c r="B63" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="2" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="7" t="s">
+      <c r="B64" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="2" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="7" t="s">
+      <c r="B65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="2" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="7" t="s">
+      <c r="B66" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="2" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="9" t="s">
+      <c r="B67" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="2" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
+      <c r="B68" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="2" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="9" t="s">
+      <c r="B69" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="2" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="9" t="s">
+      <c r="B70" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="2" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="9" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="9" t="s">
+      <c r="B71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="2" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="9" t="s">
+      <c r="B72" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="2" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="9" t="s">
+      <c r="B73" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="2" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="9" t="s">
+      <c r="B74" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="2" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="9" t="s">
+      <c r="B75" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="2" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="9" t="s">
+      <c r="B76" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="2" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="9" t="s">
+      <c r="B77" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="2" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="9" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="9" t="s">
+      <c r="B78" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
